--- a/storage/Pharmacy_Monthly_InOut_Report.xlsx
+++ b/storage/Pharmacy_Monthly_InOut_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cesu\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9975A3-E38F-4A0F-91AF-E908AC256815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E61575-4A6A-40CB-B2EB-BE4C02F5929C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{684C0A4C-5504-4C6C-96F8-2ADAEB44EA1B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AA$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AB$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>Meds</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>UOM</t>
+  </si>
+  <si>
+    <t>Current Stock</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,10 +220,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,20 +562,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC2D1BD-2473-4D52-8518-DA53C76F4BD2}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -597,161 +603,167 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="3"/>
+      <c r="V2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="A1:AA1"/>
+  <mergeCells count="17">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="A1:AB1"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
